--- a/data/스낵.xlsx
+++ b/data/스낵.xlsx
@@ -456,10 +456,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -468,20 +466,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B-1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+          <t>S-1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2015</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -490,20 +484,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B-2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
+          <t>S-2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2016</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -512,20 +502,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B-1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7777</t>
-        </is>
+          <t>S-1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2016</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -534,20 +520,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B-2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+          <t>S-2</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2017</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -556,20 +538,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B-1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
+          <t>S-1</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2017</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -578,13 +556,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B-2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
+          <t>S-2</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
